--- a/outputs-r202/test-g__RUG762.xlsx
+++ b/outputs-r202/test-g__RUG762.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>Row</t>
   </si>
@@ -79,7 +79,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -89,14 +89,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -124,152 +128,152 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.99987581616961496</v>
+        <v>0.94128117253055377</v>
       </c>
       <c r="C2">
-        <v>2.220418484916752e-14</v>
+        <v>2.2200347554608713e-14</v>
       </c>
       <c r="D2">
-        <v>0.00012418383020742821</v>
+        <v>1.7134767953500412e-08</v>
       </c>
       <c r="E2">
-        <v>2.220418484916752e-14</v>
+        <v>0.058718810334522989</v>
       </c>
       <c r="F2">
-        <v>2.220418484916752e-14</v>
+        <v>2.2200347554608713e-14</v>
       </c>
       <c r="G2">
-        <v>2.220418484916752e-14</v>
+        <v>2.2200347554608713e-14</v>
       </c>
       <c r="H2">
-        <v>2.220418484916752e-14</v>
+        <v>2.2200347554608713e-14</v>
       </c>
       <c r="I2">
-        <v>2.220418484916752e-14</v>
+        <v>2.2200347554608713e-14</v>
       </c>
       <c r="J2">
-        <v>2.220418484916752e-14</v>
+        <v>2.2200347554608713e-14</v>
       </c>
       <c r="K2">
-        <v>2.220418484916752e-14</v>
+        <v>2.2200347554608713e-14</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.220445301039351e-14</v>
+        <v>2.2203880716455473e-14</v>
       </c>
       <c r="C3">
-        <v>0.99999663032435149</v>
+        <v>0.99973869235744206</v>
       </c>
       <c r="D3">
-        <v>3.3696754708340499e-06</v>
+        <v>0.00026130764238028125</v>
       </c>
       <c r="E3">
-        <v>2.220445301039351e-14</v>
+        <v>2.2203880716455473e-14</v>
       </c>
       <c r="F3">
-        <v>2.220445301039351e-14</v>
+        <v>2.2203880716455473e-14</v>
       </c>
       <c r="G3">
-        <v>2.220445301039351e-14</v>
+        <v>2.2203880716455473e-14</v>
       </c>
       <c r="H3">
-        <v>2.220445301039351e-14</v>
+        <v>2.2203880716455473e-14</v>
       </c>
       <c r="I3">
-        <v>2.220445301039351e-14</v>
+        <v>2.2203880716455473e-14</v>
       </c>
       <c r="J3">
-        <v>2.220445301039351e-14</v>
+        <v>2.2203880716455473e-14</v>
       </c>
       <c r="K3">
-        <v>2.220445301039351e-14</v>
+        <v>2.2203880716455473e-14</v>
       </c>
       <c r="L3">
         <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2.2204455761426177e-14</v>
+        <v>2.2204460042277711e-14</v>
       </c>
       <c r="C4">
-        <v>2.2204455761426177e-14</v>
+        <v>2.2204460042277711e-14</v>
       </c>
       <c r="D4">
-        <v>2.1307005687149294e-06</v>
+        <v>2.0276327319891156e-07</v>
       </c>
       <c r="E4">
-        <v>0.99999786929925372</v>
+        <v>0.99999979723654919</v>
       </c>
       <c r="F4">
-        <v>2.2204455761426177e-14</v>
+        <v>2.2204460042277711e-14</v>
       </c>
       <c r="G4">
-        <v>2.2204455761426177e-14</v>
+        <v>2.2204460042277711e-14</v>
       </c>
       <c r="H4">
-        <v>2.2204455761426177e-14</v>
+        <v>2.2204460042277711e-14</v>
       </c>
       <c r="I4">
-        <v>2.2204455761426177e-14</v>
+        <v>2.2204460042277711e-14</v>
       </c>
       <c r="J4">
-        <v>2.2204455761426177e-14</v>
+        <v>2.2204460042277711e-14</v>
       </c>
       <c r="K4">
-        <v>2.2204455761426177e-14</v>
+        <v>2.2204460042277711e-14</v>
       </c>
       <c r="L4">
         <v>4</v>
